--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Code/CDSS Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0D5A9C-244E-C04E-9894-148A94F2E1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522A4CA4-6F14-9543-933D-A74E7DD2294B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12280" yWindow="3380" windowWidth="26840" windowHeight="15860" xr2:uid="{992D8B03-2AE1-A64B-844E-2B7D9B756935}"/>
+    <workbookView xWindow="1800" yWindow="500" windowWidth="10000" windowHeight="16340" xr2:uid="{992D8B03-2AE1-A64B-844E-2B7D9B756935}"/>
   </bookViews>
   <sheets>
     <sheet name="Conditions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -395,26 +395,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF4A86E8"/>
-          <bgColor rgb="FF4A86E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -735,13 +716,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1288C910-3837-9443-B409-E1B1C6848137}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" customWidth="1"/>
     <col min="3" max="3" width="33.83203125" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
@@ -789,7 +770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1295,7 +1276,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:D39">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Code/CDSS Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522A4CA4-6F14-9543-933D-A74E7DD2294B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A7B728-DE6F-1045-A1F5-47D4ED787FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="500" windowWidth="10000" windowHeight="16340" xr2:uid="{992D8B03-2AE1-A64B-844E-2B7D9B756935}"/>
+    <workbookView xWindow="2160" yWindow="500" windowWidth="10000" windowHeight="16340" xr2:uid="{992D8B03-2AE1-A64B-844E-2B7D9B756935}"/>
   </bookViews>
   <sheets>
     <sheet name="Conditions" sheetId="1" r:id="rId1"/>
@@ -716,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1288C910-3837-9443-B409-E1B1C6848137}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Code/CDSS Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A7B728-DE6F-1045-A1F5-47D4ED787FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000242DD-FB7D-C641-BA55-3BB3497C838F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="500" windowWidth="10000" windowHeight="16340" xr2:uid="{992D8B03-2AE1-A64B-844E-2B7D9B756935}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="84">
   <si>
     <t>conditions</t>
   </si>
@@ -275,33 +275,6 @@
   </si>
   <si>
     <t>Contaminated Procedures</t>
-  </si>
-  <si>
-    <t>corneal_ulcers_non_infected</t>
-  </si>
-  <si>
-    <t>Corneal Ulcers, Non-Infected</t>
-  </si>
-  <si>
-    <t>eyes</t>
-  </si>
-  <si>
-    <t>corneal_ulcers_infected_cocci</t>
-  </si>
-  <si>
-    <t>Corneal Ulcers, Infected with Cocci</t>
-  </si>
-  <si>
-    <t>corneal_ulcers_infected_rods</t>
-  </si>
-  <si>
-    <t>Corneal Ulcers, Infected with Rods</t>
-  </si>
-  <si>
-    <t>corneal_ulcers_infected_none</t>
-  </si>
-  <si>
-    <t>Corneal Ulcers, Infected, No Cocci/Rods Present in Cytology or no Cytology available</t>
   </si>
   <si>
     <t>list_name</t>
@@ -717,7 +690,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A36" sqref="A36:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -730,16 +703,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.2">
@@ -1218,61 +1191,29 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>82</v>
-      </c>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:D39">

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Code/CDSS Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000242DD-FB7D-C641-BA55-3BB3497C838F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D02EAF4-D44D-8F43-B20A-0ADC3F4AF3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="500" windowWidth="10000" windowHeight="16340" xr2:uid="{992D8B03-2AE1-A64B-844E-2B7D9B756935}"/>
+    <workbookView xWindow="1540" yWindow="540" windowWidth="16800" windowHeight="16340" xr2:uid="{992D8B03-2AE1-A64B-844E-2B7D9B756935}"/>
   </bookViews>
   <sheets>
     <sheet name="Conditions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,252 +36,147 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="49">
   <si>
     <t>conditions</t>
   </si>
   <si>
-    <t>non_complicated_wounds</t>
-  </si>
-  <si>
     <t>Non-complicated Wounds</t>
   </si>
   <si>
     <t>wounds</t>
   </si>
   <si>
-    <t>contaminated_wounds_no_synovial</t>
-  </si>
-  <si>
     <t>Contaminated Wounds without Synovial Involvement</t>
   </si>
   <si>
-    <t>contaminated_wounds_synovial</t>
-  </si>
-  <si>
     <t>Contaminated Wounds with Synovial Involvement</t>
   </si>
   <si>
-    <t>phlegmon_erysipelas</t>
-  </si>
-  <si>
     <t>Phlegmon / Erysipelas</t>
   </si>
   <si>
     <t>skin</t>
   </si>
   <si>
-    <t>non_complicated_hoof_abscess</t>
-  </si>
-  <si>
     <t>Non-complicated Hoof Abscess</t>
   </si>
   <si>
-    <t>hoof_abscess_coffin_bone_involvement</t>
-  </si>
-  <si>
     <t>Hoof Abscess with Coffin Bone Involvement</t>
   </si>
   <si>
-    <t>pyoderma</t>
-  </si>
-  <si>
     <t>Pyoderma</t>
   </si>
   <si>
-    <t>sinusitis_no_dental</t>
-  </si>
-  <si>
     <t>Sinusitis without Dental Involvement</t>
   </si>
   <si>
     <t>respiratory_tract</t>
   </si>
   <si>
-    <t>strangles_abscess</t>
-  </si>
-  <si>
     <t>Strangles with Abscess</t>
   </si>
   <si>
-    <t>strangles_airway_obstruction</t>
-  </si>
-  <si>
     <t>Strangles with Airway Obstruction</t>
   </si>
   <si>
-    <t>rhodococcosis</t>
-  </si>
-  <si>
     <t>Rhodococcosis</t>
   </si>
   <si>
-    <t>aspiration_pneumonia</t>
-  </si>
-  <si>
     <t>Aspiration Pneumonia</t>
   </si>
   <si>
-    <t>periodontal_gingivitis</t>
-  </si>
-  <si>
     <t>Periodontal Gingivitis</t>
   </si>
   <si>
     <t>gastrointestinal_tract</t>
   </si>
   <si>
-    <t>acute_diarrhea_clostridium</t>
-  </si>
-  <si>
     <t>Acute Diarrhea Due to Clostridium Infection</t>
   </si>
   <si>
-    <t>acute_diarrhea_salmonella</t>
-  </si>
-  <si>
     <t>Acute Diarrhea Due to Salmonella Infection</t>
   </si>
   <si>
-    <t>acute_diarrhea_unknown</t>
-  </si>
-  <si>
     <t>Acute Diarrhea of Unknown Origin</t>
   </si>
   <si>
-    <t>peritonitis</t>
-  </si>
-  <si>
     <t>Peritonitis</t>
   </si>
   <si>
-    <t>cystitis</t>
-  </si>
-  <si>
     <t>Cystitis</t>
   </si>
   <si>
     <t>urinary_tract</t>
   </si>
   <si>
-    <t>pyelonephritis</t>
-  </si>
-  <si>
     <t>Pyelonephritis</t>
   </si>
   <si>
-    <t>endometritis</t>
-  </si>
-  <si>
     <t>Endometritis</t>
   </si>
   <si>
     <t>genital_tract</t>
   </si>
   <si>
-    <t>placentitis</t>
-  </si>
-  <si>
     <t>Placentitis</t>
   </si>
   <si>
-    <t>retained_placenta</t>
-  </si>
-  <si>
     <t>Retained Placenta (Retentio secundinarum)</t>
   </si>
   <si>
-    <t>mastitis</t>
-  </si>
-  <si>
     <t>Mastitis</t>
   </si>
   <si>
-    <t>meningitis</t>
-  </si>
-  <si>
     <t>Meningitis</t>
   </si>
   <si>
     <t>nervous_system</t>
   </si>
   <si>
-    <t>endocarditis</t>
-  </si>
-  <si>
     <t>Endocarditis</t>
   </si>
   <si>
     <t>cardiovascular_system</t>
   </si>
   <si>
-    <t>leptospirosis</t>
-  </si>
-  <si>
     <t>Leptospirosis</t>
   </si>
   <si>
     <t>specific_infections</t>
   </si>
   <si>
-    <t>lyme_disease</t>
-  </si>
-  <si>
     <t>Lyme Disease</t>
   </si>
   <si>
-    <t>anaplasmosis</t>
-  </si>
-  <si>
     <t>Anaplasmosis</t>
   </si>
   <si>
-    <t>sepsis</t>
-  </si>
-  <si>
     <t>Sepsis</t>
   </si>
   <si>
     <t>foal</t>
   </si>
   <si>
-    <t>septic_arthritis</t>
-  </si>
-  <si>
     <t>Septic Arthritis</t>
   </si>
   <si>
-    <t>persistent_urachus</t>
-  </si>
-  <si>
     <t>Persistent Urachus</t>
   </si>
   <si>
-    <t>elective_procedures_short_clean</t>
-  </si>
-  <si>
     <t>Elective Procedures: Short, Clean</t>
   </si>
   <si>
     <t>perioperative_prophylaxis</t>
   </si>
   <si>
-    <t>elective_procedures_long_clean</t>
-  </si>
-  <si>
     <t>Elective Procedures: Long, Clean, &gt;1 Person Present</t>
   </si>
   <si>
-    <t>contaminated_procedures</t>
-  </si>
-  <si>
     <t>Contaminated Procedures</t>
   </si>
   <si>
     <t>list_name</t>
-  </si>
-  <si>
-    <t>name</t>
   </si>
   <si>
     <t>label</t>
@@ -360,10 +256,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -687,536 +583,426 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1288C910-3837-9443-B409-E1B1C6848137}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:D39"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>80</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="C8" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C20" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="1" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="C22" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C23" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="C24" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="1" t="s">
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="1" t="s">
+    </row>
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="1" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="C28" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C29" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="1" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="C31" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="C32" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="2" t="s">
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C34" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C35" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="1"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="1"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="1"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="2"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:D39">
+  <conditionalFormatting sqref="A2:C39">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Code/CDSS Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bboen\Documents\Repositories\CDSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D02EAF4-D44D-8F43-B20A-0ADC3F4AF3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39069BE-F249-42D8-89FC-D6819DA05AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="540" windowWidth="16800" windowHeight="16340" xr2:uid="{992D8B03-2AE1-A64B-844E-2B7D9B756935}"/>
+    <workbookView xWindow="29630" yWindow="3940" windowWidth="9750" windowHeight="18390" xr2:uid="{992D8B03-2AE1-A64B-844E-2B7D9B756935}"/>
   </bookViews>
   <sheets>
     <sheet name="Conditions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,12 +46,6 @@
     <t>wounds</t>
   </si>
   <si>
-    <t>Contaminated Wounds without Synovial Involvement</t>
-  </si>
-  <si>
-    <t>Contaminated Wounds with Synovial Involvement</t>
-  </si>
-  <si>
     <t>Phlegmon / Erysipelas</t>
   </si>
   <si>
@@ -183,6 +176,12 @@
   </si>
   <si>
     <t>selected_disease</t>
+  </si>
+  <si>
+    <t>Contaminated Limb Wounds without Synovial Involvement</t>
+  </si>
+  <si>
+    <t>Contaminated Limb Wounds with Synovial Involvement</t>
   </si>
 </sst>
 </file>
@@ -262,7 +261,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -287,9 +286,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -327,7 +326,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -433,7 +432,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -575,7 +574,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -586,28 +585,28 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="33.83203125" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.8125" customWidth="1"/>
+    <col min="2" max="2" width="33.8125" customWidth="1"/>
+    <col min="3" max="3" width="19.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,385 +617,385 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C7" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="26" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C8" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="C18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="C23" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="C24" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1" t="s">
+    </row>
+    <row r="26" spans="1:3" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1" t="s">
+    <row r="27" spans="1:3" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="1" t="s">
+    <row r="28" spans="1:3" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="C29" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="1" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="C32" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="1" t="s">
+    </row>
+    <row r="34" spans="1:3" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C34" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C35" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bboen\Documents\Repositories\CDSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39069BE-F249-42D8-89FC-D6819DA05AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4D0BE5-59FF-491B-B11C-ED6490C08846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29630" yWindow="3940" windowWidth="9750" windowHeight="18390" xr2:uid="{992D8B03-2AE1-A64B-844E-2B7D9B756935}"/>
+    <workbookView xWindow="103080" yWindow="5130" windowWidth="25650" windowHeight="19770" xr2:uid="{992D8B03-2AE1-A64B-844E-2B7D9B756935}"/>
   </bookViews>
   <sheets>
     <sheet name="Conditions" sheetId="1" r:id="rId1"/>
@@ -67,9 +67,6 @@
     <t>respiratory_tract</t>
   </si>
   <si>
-    <t>Strangles with Abscess</t>
-  </si>
-  <si>
     <t>Strangles with Airway Obstruction</t>
   </si>
   <si>
@@ -182,6 +179,9 @@
   </si>
   <si>
     <t>Contaminated Limb Wounds with Synovial Involvement</t>
+  </si>
+  <si>
+    <t>Suppurative Strangles</t>
   </si>
 </sst>
 </file>
@@ -212,7 +212,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -585,28 +584,28 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.8125" customWidth="1"/>
-    <col min="2" max="2" width="33.8125" customWidth="1"/>
-    <col min="3" max="3" width="19.6875" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="33.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,29 +616,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="26.25" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="26.25" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,7 +649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -661,7 +660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="26.25" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,7 +671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -683,7 +682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -694,308 +693,308 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="26.25" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="26.25" x14ac:dyDescent="0.5">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="26.25" x14ac:dyDescent="0.5">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="26.25" x14ac:dyDescent="0.5">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="26.25" x14ac:dyDescent="0.5">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="2" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="2" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="26.25" x14ac:dyDescent="0.5">
-      <c r="A23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="2" t="s">
+    </row>
+    <row r="26" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="26.25" x14ac:dyDescent="0.5">
-      <c r="A26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="2" t="s">
+    </row>
+    <row r="27" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="26.25" x14ac:dyDescent="0.5">
-      <c r="A27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="2" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="26.25" x14ac:dyDescent="0.5">
-      <c r="A28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="26.25" x14ac:dyDescent="0.5">
-      <c r="A29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="2" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="26.25" x14ac:dyDescent="0.5">
-      <c r="A33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="2" t="s">
+    </row>
+    <row r="34" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="26.25" x14ac:dyDescent="0.5">
-      <c r="A34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="26.25" x14ac:dyDescent="0.5">
-      <c r="A35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="C35" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
